--- a/www/IndicatorsPerCountry/Finland_GDPperCapita_TerritorialRef_1946_2012_CCode_246.xlsx
+++ b/www/IndicatorsPerCountry/Finland_GDPperCapita_TerritorialRef_1946_2012_CCode_246.xlsx
@@ -507,13 +507,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Finland_GDPperCapita_TerritorialRef_1946_2012_CCode_246.xlsx
+++ b/www/IndicatorsPerCountry/Finland_GDPperCapita_TerritorialRef_1946_2012_CCode_246.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="178">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,448 +36,481 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>781</t>
+    <t>1191</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>896</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1145</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>1259</t>
-  </si>
-  <si>
-    <t>1173</t>
-  </si>
-  <si>
-    <t>1167</t>
-  </si>
-  <si>
-    <t>1155</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1203</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>1276</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>1327</t>
-  </si>
-  <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t>1341</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1492</t>
-  </si>
-  <si>
-    <t>1570</t>
-  </si>
-  <si>
-    <t>1624</t>
-  </si>
-  <si>
-    <t>1668</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>1686</t>
-  </si>
-  <si>
-    <t>1731</t>
-  </si>
-  <si>
-    <t>1742</t>
-  </si>
-  <si>
-    <t>1794</t>
-  </si>
-  <si>
-    <t>1834</t>
-  </si>
-  <si>
-    <t>1829</t>
-  </si>
-  <si>
-    <t>1884</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1939</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1882</t>
-  </si>
-  <si>
-    <t>1893</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>1370</t>
-  </si>
-  <si>
-    <t>1658</t>
-  </si>
-  <si>
-    <t>1846</t>
-  </si>
-  <si>
-    <t>2058</t>
-  </si>
-  <si>
-    <t>2187</t>
-  </si>
-  <si>
-    <t>2224</t>
-  </si>
-  <si>
-    <t>2328</t>
-  </si>
-  <si>
-    <t>2392</t>
-  </si>
-  <si>
-    <t>2557</t>
-  </si>
-  <si>
-    <t>2707</t>
-  </si>
-  <si>
-    <t>2717</t>
-  </si>
-  <si>
-    <t>2666</t>
-  </si>
-  <si>
-    <t>2581</t>
-  </si>
-  <si>
-    <t>2550</t>
-  </si>
-  <si>
-    <t>2702</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>3093</t>
-  </si>
-  <si>
-    <t>3279</t>
-  </si>
-  <si>
-    <t>3441</t>
-  </si>
-  <si>
-    <t>3589</t>
-  </si>
-  <si>
-    <t>3408</t>
-  </si>
-  <si>
-    <t>3220</t>
-  </si>
-  <si>
-    <t>3322</t>
-  </si>
-  <si>
-    <t>3327</t>
-  </si>
-  <si>
-    <t>3697</t>
-  </si>
-  <si>
-    <t>3685</t>
-  </si>
-  <si>
-    <t>3450</t>
-  </si>
-  <si>
-    <t>3683</t>
-  </si>
-  <si>
-    <t>3717</t>
-  </si>
-  <si>
-    <t>3957</t>
-  </si>
-  <si>
-    <t>4143</t>
-  </si>
-  <si>
-    <t>4253</t>
-  </si>
-  <si>
-    <t>4571</t>
-  </si>
-  <si>
-    <t>4674</t>
-  </si>
-  <si>
-    <t>4652</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>5197</t>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1817</t>
+  </si>
+  <si>
+    <t>1796</t>
+  </si>
+  <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1841</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2075</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2152</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2138</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>2378</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2589</t>
+  </si>
+  <si>
+    <t>2659</t>
+  </si>
+  <si>
+    <t>2562</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>2536</t>
+  </si>
+  <si>
+    <t>2687</t>
+  </si>
+  <si>
+    <t>2759</t>
+  </si>
+  <si>
+    <t>2777</t>
+  </si>
+  <si>
+    <t>2860</t>
+  </si>
+  <si>
+    <t>2923</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3091</t>
+  </si>
+  <si>
+    <t>3223</t>
+  </si>
+  <si>
+    <t>3365</t>
+  </si>
+  <si>
+    <t>3190</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>2520</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>2643</t>
+  </si>
+  <si>
+    <t>2942</t>
+  </si>
+  <si>
+    <t>3280</t>
+  </si>
+  <si>
+    <t>3486</t>
+  </si>
+  <si>
+    <t>3545</t>
+  </si>
+  <si>
+    <t>3711</t>
+  </si>
+  <si>
+    <t>3813</t>
+  </si>
+  <si>
+    <t>4076</t>
+  </si>
+  <si>
+    <t>4315</t>
+  </si>
+  <si>
+    <t>4331</t>
+  </si>
+  <si>
+    <t>4250</t>
+  </si>
+  <si>
+    <t>4114</t>
+  </si>
+  <si>
+    <t>4065</t>
+  </si>
+  <si>
+    <t>4307</t>
+  </si>
+  <si>
+    <t>4763</t>
+  </si>
+  <si>
+    <t>4930</t>
+  </si>
+  <si>
+    <t>5227</t>
+  </si>
+  <si>
+    <t>5485</t>
+  </si>
+  <si>
+    <t>5721</t>
+  </si>
+  <si>
+    <t>5432</t>
+  </si>
+  <si>
+    <t>5133</t>
   </si>
   <si>
     <t>5295</t>
   </si>
   <si>
-    <t>5490</t>
-  </si>
-  <si>
-    <t>5474</t>
-  </si>
-  <si>
-    <t>5754</t>
-  </si>
-  <si>
-    <t>6230</t>
-  </si>
-  <si>
-    <t>6658</t>
-  </si>
-  <si>
-    <t>6819</t>
-  </si>
-  <si>
-    <t>6994</t>
-  </si>
-  <si>
-    <t>7307</t>
-  </si>
-  <si>
-    <t>7670</t>
-  </si>
-  <si>
-    <t>7824</t>
-  </si>
-  <si>
-    <t>7947</t>
-  </si>
-  <si>
-    <t>8093</t>
-  </si>
-  <si>
-    <t>8878</t>
-  </si>
-  <si>
-    <t>9577</t>
-  </si>
-  <si>
-    <t>9765</t>
-  </si>
-  <si>
-    <t>10448</t>
-  </si>
-  <si>
-    <t>11085</t>
-  </si>
-  <si>
-    <t>11361</t>
-  </si>
-  <si>
-    <t>11441</t>
-  </si>
-  <si>
-    <t>11358</t>
-  </si>
-  <si>
-    <t>11355</t>
-  </si>
-  <si>
-    <t>11559</t>
-  </si>
-  <si>
-    <t>12332</t>
-  </si>
-  <si>
-    <t>12949</t>
-  </si>
-  <si>
-    <t>13134</t>
-  </si>
-  <si>
-    <t>13485</t>
-  </si>
-  <si>
-    <t>13767</t>
-  </si>
-  <si>
-    <t>14107</t>
-  </si>
-  <si>
-    <t>14522</t>
-  </si>
-  <si>
-    <t>14819</t>
-  </si>
-  <si>
-    <t>15382</t>
-  </si>
-  <si>
-    <t>16088</t>
-  </si>
-  <si>
-    <t>16946</t>
-  </si>
-  <si>
-    <t>16866.3753427</t>
-  </si>
-  <si>
-    <t>15767.8881644</t>
-  </si>
-  <si>
-    <t>15136.11477</t>
-  </si>
-  <si>
-    <t>14942.827527</t>
-  </si>
-  <si>
-    <t>15424.269176</t>
-  </si>
-  <si>
-    <t>15976.9876485</t>
-  </si>
-  <si>
-    <t>16496.669147</t>
-  </si>
-  <si>
-    <t>17472.3035363</t>
-  </si>
-  <si>
-    <t>18306.5253799</t>
-  </si>
-  <si>
-    <t>18981.0026948</t>
-  </si>
-  <si>
-    <t>19950.8919243</t>
-  </si>
-  <si>
-    <t>20360.3915596</t>
-  </si>
-  <si>
-    <t>20683.0007086</t>
-  </si>
-  <si>
-    <t>21053.1376275</t>
-  </si>
-  <si>
-    <t>21879.0931459</t>
-  </si>
-  <si>
-    <t>22478.6041383</t>
-  </si>
-  <si>
-    <t>23434.4674531</t>
-  </si>
-  <si>
-    <t>24651.3402794</t>
-  </si>
-  <si>
-    <t>24694.0578674</t>
-  </si>
-  <si>
-    <t>22561.7395644</t>
-  </si>
-  <si>
-    <t>23290.4832857</t>
+    <t>5303</t>
+  </si>
+  <si>
+    <t>5893</t>
+  </si>
+  <si>
+    <t>5874</t>
+  </si>
+  <si>
+    <t>5499</t>
+  </si>
+  <si>
+    <t>5871</t>
+  </si>
+  <si>
+    <t>5925</t>
+  </si>
+  <si>
+    <t>6307</t>
+  </si>
+  <si>
+    <t>6604</t>
+  </si>
+  <si>
+    <t>6779</t>
+  </si>
+  <si>
+    <t>7286</t>
+  </si>
+  <si>
+    <t>7450</t>
+  </si>
+  <si>
+    <t>7415</t>
+  </si>
+  <si>
+    <t>7973</t>
+  </si>
+  <si>
+    <t>8284</t>
+  </si>
+  <si>
+    <t>8440</t>
+  </si>
+  <si>
+    <t>8751</t>
+  </si>
+  <si>
+    <t>8725</t>
+  </si>
+  <si>
+    <t>9172</t>
+  </si>
+  <si>
+    <t>9931</t>
+  </si>
+  <si>
+    <t>10613</t>
+  </si>
+  <si>
+    <t>10869</t>
+  </si>
+  <si>
+    <t>11148</t>
+  </si>
+  <si>
+    <t>11647</t>
+  </si>
+  <si>
+    <t>12226</t>
+  </si>
+  <si>
+    <t>12471</t>
+  </si>
+  <si>
+    <t>12667</t>
+  </si>
+  <si>
+    <t>12900</t>
+  </si>
+  <si>
+    <t>14151</t>
+  </si>
+  <si>
+    <t>15266</t>
+  </si>
+  <si>
+    <t>15565</t>
+  </si>
+  <si>
+    <t>16654</t>
+  </si>
+  <si>
+    <t>17669</t>
+  </si>
+  <si>
+    <t>18109</t>
+  </si>
+  <si>
+    <t>18237</t>
+  </si>
+  <si>
+    <t>18104</t>
+  </si>
+  <si>
+    <t>18100</t>
+  </si>
+  <si>
+    <t>18425</t>
+  </si>
+  <si>
+    <t>19657</t>
+  </si>
+  <si>
+    <t>20640</t>
+  </si>
+  <si>
+    <t>20935</t>
+  </si>
+  <si>
+    <t>21495</t>
+  </si>
+  <si>
+    <t>21944</t>
+  </si>
+  <si>
+    <t>22486</t>
+  </si>
+  <si>
+    <t>23148</t>
+  </si>
+  <si>
+    <t>23621</t>
+  </si>
+  <si>
+    <t>24519</t>
+  </si>
+  <si>
+    <t>25644</t>
+  </si>
+  <si>
+    <t>27012</t>
+  </si>
+  <si>
+    <t>26884</t>
+  </si>
+  <si>
+    <t>25174.8990340312</t>
+  </si>
+  <si>
+    <t>24219.7606253107</t>
+  </si>
+  <si>
+    <t>23943.7449435497</t>
+  </si>
+  <si>
+    <t>24797.6594127395</t>
+  </si>
+  <si>
+    <t>25761.6242195634</t>
+  </si>
+  <si>
+    <t>26637.265654374</t>
+  </si>
+  <si>
+    <t>28239.874533729</t>
+  </si>
+  <si>
+    <t>29715.3414301803</t>
+  </si>
+  <si>
+    <t>30986.8883164753</t>
+  </si>
+  <si>
+    <t>32689.7688915662</t>
+  </si>
+  <si>
+    <t>33481.6786598323</t>
+  </si>
+  <si>
+    <t>33986.5540804914</t>
+  </si>
+  <si>
+    <t>34607.2193260329</t>
+  </si>
+  <si>
+    <t>35888.6131934003</t>
+  </si>
+  <si>
+    <t>36787.2574094618</t>
+  </si>
+  <si>
+    <t>38160.7025906611</t>
+  </si>
+  <si>
+    <t>39998.5253860533</t>
+  </si>
+  <si>
+    <t>40129.6533382812</t>
+  </si>
+  <si>
+    <t>36662.6133108038</t>
+  </si>
+  <si>
+    <t>37615.1133841486</t>
+  </si>
+  <si>
+    <t>38432</t>
+  </si>
+  <si>
+    <t>37704</t>
+  </si>
+  <si>
+    <t>37246</t>
+  </si>
+  <si>
+    <t>36858</t>
+  </si>
+  <si>
+    <t>36836</t>
+  </si>
+  <si>
+    <t>37239</t>
   </si>
   <si>
     <t>Description</t>
@@ -592,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1820.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -609,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1821.0</v>
+        <v>1601.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -626,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1822.0</v>
+        <v>1602.0</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -643,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1823.0</v>
+        <v>1603.0</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -660,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1824.0</v>
+        <v>1604.0</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -677,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1825.0</v>
+        <v>1605.0</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -694,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1826.0</v>
+        <v>1606.0</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -711,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1827.0</v>
+        <v>1607.0</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -728,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1828.0</v>
+        <v>1608.0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -745,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1829.0</v>
+        <v>1609.0</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -762,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1830.0</v>
+        <v>1610.0</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -779,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1831.0</v>
+        <v>1611.0</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -796,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1832.0</v>
+        <v>1612.0</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -813,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1833.0</v>
+        <v>1613.0</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -830,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1834.0</v>
+        <v>1614.0</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -847,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1835.0</v>
+        <v>1615.0</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -864,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1836.0</v>
+        <v>1616.0</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -881,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1837.0</v>
+        <v>1617.0</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -898,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1838.0</v>
+        <v>1618.0</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -915,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1839.0</v>
+        <v>1619.0</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -932,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1840.0</v>
+        <v>1620.0</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -949,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1841.0</v>
+        <v>1621.0</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -966,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1842.0</v>
+        <v>1622.0</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -983,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1843.0</v>
+        <v>1623.0</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1000,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1844.0</v>
+        <v>1624.0</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1017,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1845.0</v>
+        <v>1625.0</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1034,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1846.0</v>
+        <v>1626.0</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1051,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1847.0</v>
+        <v>1627.0</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1068,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1848.0</v>
+        <v>1628.0</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1085,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1849.0</v>
+        <v>1629.0</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1102,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1850.0</v>
+        <v>1630.0</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1119,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1851.0</v>
+        <v>1631.0</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1136,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1852.0</v>
+        <v>1632.0</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1153,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1853.0</v>
+        <v>1633.0</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1170,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1854.0</v>
+        <v>1634.0</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1187,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1855.0</v>
+        <v>1635.0</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1204,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1856.0</v>
+        <v>1636.0</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1221,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1857.0</v>
+        <v>1637.0</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1238,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1858.0</v>
+        <v>1638.0</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1255,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1859.0</v>
+        <v>1639.0</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1272,10 +1305,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1860.0</v>
+        <v>1640.0</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1289,10 +1322,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1861.0</v>
+        <v>1641.0</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1306,10 +1339,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1862.0</v>
+        <v>1642.0</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1323,10 +1356,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1863.0</v>
+        <v>1643.0</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1340,10 +1373,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1864.0</v>
+        <v>1644.0</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1357,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1865.0</v>
+        <v>1645.0</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1374,10 +1407,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1866.0</v>
+        <v>1646.0</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1391,10 +1424,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1867.0</v>
+        <v>1647.0</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1408,10 +1441,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1868.0</v>
+        <v>1648.0</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1425,10 +1458,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1869.0</v>
+        <v>1649.0</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1442,10 +1475,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1870.0</v>
+        <v>1650.0</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -1459,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1871.0</v>
+        <v>1651.0</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1476,10 +1509,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1872.0</v>
+        <v>1652.0</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1493,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1873.0</v>
+        <v>1653.0</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1510,10 +1543,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1874.0</v>
+        <v>1654.0</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1527,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1875.0</v>
+        <v>1655.0</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1544,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1876.0</v>
+        <v>1656.0</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1561,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1877.0</v>
+        <v>1657.0</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1578,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1878.0</v>
+        <v>1658.0</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1595,10 +1628,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1879.0</v>
+        <v>1659.0</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1612,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1880.0</v>
+        <v>1660.0</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1629,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1881.0</v>
+        <v>1661.0</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -1646,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1882.0</v>
+        <v>1662.0</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -1663,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1883.0</v>
+        <v>1663.0</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -1680,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1884.0</v>
+        <v>1664.0</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -1697,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1885.0</v>
+        <v>1665.0</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -1714,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1886.0</v>
+        <v>1666.0</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1731,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1887.0</v>
+        <v>1667.0</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1748,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1888.0</v>
+        <v>1668.0</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -1765,10 +1798,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1889.0</v>
+        <v>1669.0</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -1782,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1890.0</v>
+        <v>1670.0</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -1799,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1891.0</v>
+        <v>1671.0</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -1816,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1892.0</v>
+        <v>1672.0</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -1833,10 +1866,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1893.0</v>
+        <v>1673.0</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -1850,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1894.0</v>
+        <v>1674.0</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -1867,10 +1900,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1895.0</v>
+        <v>1675.0</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -1884,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1896.0</v>
+        <v>1676.0</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -1901,10 +1934,10 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1897.0</v>
+        <v>1677.0</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -1918,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1898.0</v>
+        <v>1678.0</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -1935,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1899.0</v>
+        <v>1679.0</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -1952,10 +1985,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1900.0</v>
+        <v>1680.0</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -1969,10 +2002,10 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1901.0</v>
+        <v>1681.0</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -1986,10 +2019,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1902.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -2003,10 +2036,10 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1903.0</v>
+        <v>1683.0</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -2020,10 +2053,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1904.0</v>
+        <v>1684.0</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -2037,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1905.0</v>
+        <v>1685.0</v>
       </c>
       <c r="E87" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -2054,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1906.0</v>
+        <v>1686.0</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -2071,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1907.0</v>
+        <v>1687.0</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -2088,10 +2121,10 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1908.0</v>
+        <v>1688.0</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -2105,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1909.0</v>
+        <v>1689.0</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -2122,10 +2155,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1910.0</v>
+        <v>1690.0</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -2139,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1911.0</v>
+        <v>1691.0</v>
       </c>
       <c r="E93" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -2156,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1912.0</v>
+        <v>1692.0</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -2173,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1913.0</v>
+        <v>1693.0</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -2190,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1914.0</v>
+        <v>1694.0</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -2207,10 +2240,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1915.0</v>
+        <v>1695.0</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -2224,10 +2257,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1916.0</v>
+        <v>1696.0</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -2241,10 +2274,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1917.0</v>
+        <v>1697.0</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -2258,10 +2291,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1918.0</v>
+        <v>1698.0</v>
       </c>
       <c r="E100" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -2275,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1919.0</v>
+        <v>1699.0</v>
       </c>
       <c r="E101" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -2292,10 +2325,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1920.0</v>
+        <v>1700.0</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -2309,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1921.0</v>
+        <v>1701.0</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
@@ -2326,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1922.0</v>
+        <v>1702.0</v>
       </c>
       <c r="E104" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -2343,10 +2376,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1923.0</v>
+        <v>1703.0</v>
       </c>
       <c r="E105" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -2360,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1924.0</v>
+        <v>1704.0</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -2377,10 +2410,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1925.0</v>
+        <v>1705.0</v>
       </c>
       <c r="E107" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -2394,10 +2427,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1926.0</v>
+        <v>1706.0</v>
       </c>
       <c r="E108" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
@@ -2411,10 +2444,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1927.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E109" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
@@ -2428,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1928.0</v>
+        <v>1708.0</v>
       </c>
       <c r="E110" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
@@ -2445,10 +2478,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1929.0</v>
+        <v>1709.0</v>
       </c>
       <c r="E111" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
@@ -2462,10 +2495,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1930.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E112" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -2479,10 +2512,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1931.0</v>
+        <v>1711.0</v>
       </c>
       <c r="E113" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -2496,10 +2529,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1932.0</v>
+        <v>1712.0</v>
       </c>
       <c r="E114" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
@@ -2513,10 +2546,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1933.0</v>
+        <v>1713.0</v>
       </c>
       <c r="E115" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
@@ -2530,10 +2563,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1934.0</v>
+        <v>1714.0</v>
       </c>
       <c r="E116" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
@@ -2547,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1935.0</v>
+        <v>1715.0</v>
       </c>
       <c r="E117" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -2564,10 +2597,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1936.0</v>
+        <v>1716.0</v>
       </c>
       <c r="E118" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -2581,10 +2614,10 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1937.0</v>
+        <v>1717.0</v>
       </c>
       <c r="E119" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -2598,10 +2631,10 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1938.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E120" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
@@ -2615,10 +2648,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1939.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E121" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -2632,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1940.0</v>
+        <v>1720.0</v>
       </c>
       <c r="E122" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -2649,10 +2682,10 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1941.0</v>
+        <v>1721.0</v>
       </c>
       <c r="E123" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -2666,10 +2699,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1942.0</v>
+        <v>1722.0</v>
       </c>
       <c r="E124" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -2683,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1943.0</v>
+        <v>1723.0</v>
       </c>
       <c r="E125" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -2700,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1944.0</v>
+        <v>1724.0</v>
       </c>
       <c r="E126" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -2717,10 +2750,10 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1945.0</v>
+        <v>1725.0</v>
       </c>
       <c r="E127" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -2734,10 +2767,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1946.0</v>
+        <v>1726.0</v>
       </c>
       <c r="E128" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -2751,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1947.0</v>
+        <v>1727.0</v>
       </c>
       <c r="E129" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
@@ -2768,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1948.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E130" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -2785,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1949.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E131" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -2802,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1950.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E132" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -2819,10 +2852,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1951.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E133" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -2836,10 +2869,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1952.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -2853,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1953.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E135" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -2870,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1954.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E136" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -2887,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1955.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E137" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -2904,10 +2937,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1956.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E138" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -2921,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1957.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E139" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
@@ -2938,10 +2971,10 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1958.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E140" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
@@ -2955,10 +2988,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1959.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E141" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
@@ -2972,10 +3005,10 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1960.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -2989,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1961.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E143" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
@@ -3006,10 +3039,10 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1962.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E144" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145">
@@ -3023,10 +3056,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1963.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E145" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
@@ -3040,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1964.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E146" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
@@ -3057,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1965.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E147" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -3074,10 +3107,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1966.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E148" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
@@ -3091,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1967.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E149" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
@@ -3108,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1968.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E150" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
@@ -3125,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1969.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E151" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
@@ -3142,10 +3175,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1970.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E152" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -3159,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1971.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E153" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
@@ -3176,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1972.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E154" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -3193,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1973.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E155" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -3210,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1974.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E156" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
@@ -3227,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1975.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E157" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -3244,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1976.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E158" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -3261,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1977.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E159" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -3278,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1978.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E160" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -3295,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1979.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E161" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -3312,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1980.0</v>
+        <v>1760.0</v>
       </c>
       <c r="E162" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -3329,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1981.0</v>
+        <v>1761.0</v>
       </c>
       <c r="E163" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -3346,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1982.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E164" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -3363,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1983.0</v>
+        <v>1763.0</v>
       </c>
       <c r="E165" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -3380,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1984.0</v>
+        <v>1764.0</v>
       </c>
       <c r="E166" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
@@ -3397,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1985.0</v>
+        <v>1765.0</v>
       </c>
       <c r="E167" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -3414,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1986.0</v>
+        <v>1766.0</v>
       </c>
       <c r="E168" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
@@ -3431,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1987.0</v>
+        <v>1767.0</v>
       </c>
       <c r="E169" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
@@ -3448,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1988.0</v>
+        <v>1768.0</v>
       </c>
       <c r="E170" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -3465,10 +3498,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1989.0</v>
+        <v>1769.0</v>
       </c>
       <c r="E171" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
@@ -3482,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1990.0</v>
+        <v>1770.0</v>
       </c>
       <c r="E172" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -3499,10 +3532,10 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1991.0</v>
+        <v>1771.0</v>
       </c>
       <c r="E173" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
@@ -3516,10 +3549,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1992.0</v>
+        <v>1772.0</v>
       </c>
       <c r="E174" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
@@ -3533,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1993.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E175" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -3550,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1994.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E176" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -3567,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1995.0</v>
+        <v>1775.0</v>
       </c>
       <c r="E177" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -3584,10 +3617,10 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1996.0</v>
+        <v>1776.0</v>
       </c>
       <c r="E178" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179">
@@ -3601,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1997.0</v>
+        <v>1777.0</v>
       </c>
       <c r="E179" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -3618,10 +3651,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1998.0</v>
+        <v>1778.0</v>
       </c>
       <c r="E180" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
@@ -3635,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1999.0</v>
+        <v>1779.0</v>
       </c>
       <c r="E181" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
@@ -3652,10 +3685,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>2000.0</v>
+        <v>1780.0</v>
       </c>
       <c r="E182" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">
@@ -3669,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>2001.0</v>
+        <v>1781.0</v>
       </c>
       <c r="E183" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
@@ -3686,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>2002.0</v>
+        <v>1782.0</v>
       </c>
       <c r="E184" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -3703,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>2003.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E185" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -3720,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>2004.0</v>
+        <v>1784.0</v>
       </c>
       <c r="E186" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -3737,10 +3770,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>2005.0</v>
+        <v>1785.0</v>
       </c>
       <c r="E187" t="s">
-        <v>149</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
@@ -3754,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>2006.0</v>
+        <v>1786.0</v>
       </c>
       <c r="E188" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
@@ -3771,10 +3804,10 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>2007.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E189" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -3788,10 +3821,10 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>2008.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E190" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
@@ -3805,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>2009.0</v>
+        <v>1789.0</v>
       </c>
       <c r="E191" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192">
@@ -3822,10 +3855,3852 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
+        <v>1790.0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1791.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1792.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1793.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1794.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1795.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1796.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1797.0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1798.0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1802.0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1803.0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1804.0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1805.0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1807.0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1809.0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1810.0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1811.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1812.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1813.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1814.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1817.0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1821.0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1822.0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1824.0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1831.0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1834.0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1841.0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1846.0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1849.0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1851.0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1852.0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1854.0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1857.0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1861.0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1865.0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1866.0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1872.0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1874.0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="E279" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="E281" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1881.0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1882.0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="E285" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1884.0</v>
+      </c>
+      <c r="E286" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1885.0</v>
+      </c>
+      <c r="E287" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1886.0</v>
+      </c>
+      <c r="E288" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1887.0</v>
+      </c>
+      <c r="E289" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="E290" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="E291" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="E292" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="E293" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1892.0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1893.0</v>
+      </c>
+      <c r="E295" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="E297" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="E298" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1897.0</v>
+      </c>
+      <c r="E299" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="E300" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="E301" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="E302" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="E303" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="E304" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="E305" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="E306" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="E307" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="E308" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="E309" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="E310" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="E311" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="E312" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="E313" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="E315" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1915.0</v>
+      </c>
+      <c r="E317" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1916.0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1917.0</v>
+      </c>
+      <c r="E319" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="E320" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="E321" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="E322" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1921.0</v>
+      </c>
+      <c r="E323" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="E324" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="E325" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="E326" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="E327" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="E328" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="E329" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="E330" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="E331" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="E332" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="E333" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="E334" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="E335" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="E336" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="E337" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="E338" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="E339" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="E340" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="E341" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="E342" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="E343" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="E344" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="E345" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1944.0</v>
+      </c>
+      <c r="E346" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="E347" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="E348" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="E349" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="E350" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="E351" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="E352" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="E353" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="E354" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="E355" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="E356" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="E357" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="E358" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="E359" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="E360" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="E361" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="E362" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="E363" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="E364" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="E365" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E366" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="E367" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="E369" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="E370" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E371" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E372" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E373" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E374" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E375" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E376" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E377" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E378" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E379" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E380" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E381" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E382" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E383" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E384" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E385" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E386" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E387" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E388" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E389" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E390" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E391" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E392" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E393" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E394" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E395" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E396" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E397" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E398" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E399" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E400" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E401" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E402" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E403" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E404" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E405" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E406" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E407" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E408" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E409" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E410" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E411" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E192" t="s">
-        <v>154</v>
+      <c r="E412" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E413" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E414" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E415" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E416" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E417" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E418" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3843,50 +7718,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
